--- a/docu/LISTA DE PRECIOS LA OFERTA 19-11-2025 DISPONIBLES.xlsx
+++ b/docu/LISTA DE PRECIOS LA OFERTA 19-11-2025 DISPONIBLES.xlsx
@@ -37,13 +37,13 @@
 HIDROMATICOS LA OFERTA 19-11-2025 "DISPONIBLES"</t>
   </si>
   <si>
-    <t>sku</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>price</t>
+    <t>SKU</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>COSTO</t>
   </si>
   <si>
     <t>DIRECCIÓN HIDRAULICA (18 productos)</t>
@@ -9814,7 +9814,7 @@
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="O6" sqref="O6"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.76190476190476" defaultRowHeight="26.25"/>
